--- a/results/meta.longCOVID.xlsx
+++ b/results/meta.longCOVID.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Model</t>
   </si>
   <si>
-    <t xml:space="preserve">hospital</t>
+    <t xml:space="preserve">hospitalization</t>
   </si>
   <si>
     <t xml:space="preserve">fixed</t>
@@ -41,10 +41,10 @@
     <t xml:space="preserve">random</t>
   </si>
   <si>
+    <t xml:space="preserve">age_range70-80</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_range&lt;60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_range70-80</t>
   </si>
   <si>
     <t xml:space="preserve">age_range&gt;80</t>
@@ -434,16 +434,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.70068202787751</v>
+        <v>3.13118219032745</v>
       </c>
       <c r="C2" t="n">
-        <v>1.37648488156462</v>
+        <v>2.55964113719406</v>
       </c>
       <c r="D2" t="n">
-        <v>2.10123583533874</v>
+        <v>3.83034237360771</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000860508673777337</v>
+        <v>0.000000000000000000000000000125512234544739</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -454,16 +454,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.70068246687007</v>
+        <v>3.13118219032745</v>
       </c>
       <c r="C3" t="n">
-        <v>1.37648412922992</v>
+        <v>2.55964113719406</v>
       </c>
       <c r="D3" t="n">
-        <v>2.10123806856922</v>
+        <v>3.83034237360771</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000860580492603399</v>
+        <v>0.000000000000000000000000000125512234544739</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -474,16 +474,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.11999890541947</v>
+        <v>0.632713934078499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.896259138982263</v>
+        <v>0.48071339700137</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39959247675314</v>
+        <v>0.832776712432565</v>
       </c>
       <c r="E4" t="n">
-        <v>0.318909617788335</v>
+        <v>0.00109325835174174</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -494,16 +494,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1.11393240204213</v>
+        <v>0.687124607787214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.879477669809256</v>
+        <v>0.357574909635244</v>
       </c>
       <c r="D5" t="n">
-        <v>1.41088902983571</v>
+        <v>1.32039529034169</v>
       </c>
       <c r="E5" t="n">
-        <v>0.370869465724166</v>
+        <v>0.260174687759571</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -514,16 +514,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.702709448304947</v>
+        <v>1.13061495856866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.518970108934109</v>
+        <v>0.920788462283119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.951500982881729</v>
+        <v>1.38825608367167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0225223725619532</v>
+        <v>0.241172509600351</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.672329531565922</v>
+        <v>0.986426847689518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.309888566022243</v>
+        <v>0.626355114042796</v>
       </c>
       <c r="D7" t="n">
-        <v>1.45867595186848</v>
+        <v>1.55349242630467</v>
       </c>
       <c r="E7" t="n">
-        <v>0.315076989111358</v>
+        <v>0.952971481026026</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -554,16 +554,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.696104004345239</v>
+        <v>0.557579752665703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.431494159646931</v>
+        <v>0.324003490101888</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12298341479747</v>
+        <v>0.959542690373427</v>
       </c>
       <c r="E8" t="n">
-        <v>0.137646258184139</v>
+        <v>0.0349383602812751</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -574,16 +574,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.693213746134141</v>
+        <v>0.561490008545207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.425463489279818</v>
+        <v>0.3139510060425</v>
       </c>
       <c r="D9" t="n">
-        <v>1.12946306777756</v>
+        <v>1.00420455302958</v>
       </c>
       <c r="E9" t="n">
-        <v>0.141245886582587</v>
+        <v>0.0516765289325088</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -594,16 +594,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1.37299785071565</v>
+        <v>1.65801392778913</v>
       </c>
       <c r="C10" t="n">
-        <v>1.15080195918875</v>
+        <v>1.40370183796605</v>
       </c>
       <c r="D10" t="n">
-        <v>1.63809514140791</v>
+        <v>1.95840035995538</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000432563364437497</v>
+        <v>0.00000000265420574801235</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -614,16 +614,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>1.37299785071565</v>
+        <v>1.65801392778913</v>
       </c>
       <c r="C11" t="n">
-        <v>1.15080195918875</v>
+        <v>1.40370183796605</v>
       </c>
       <c r="D11" t="n">
-        <v>1.63809514140791</v>
+        <v>1.95840035995538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000432563364437497</v>
+        <v>0.00000000265420574801235</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -634,16 +634,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1.37716025240033</v>
+        <v>1.24075556567079</v>
       </c>
       <c r="C12" t="n">
-        <v>1.13668705824575</v>
+        <v>1.03935001533284</v>
       </c>
       <c r="D12" t="n">
-        <v>1.66850704161119</v>
+        <v>1.48118954253351</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00108136898134899</v>
+        <v>0.0169846381528973</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -654,16 +654,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1.28675620694326</v>
+        <v>1.14134845662767</v>
       </c>
       <c r="C13" t="n">
-        <v>0.903242134642403</v>
+        <v>0.793500994059156</v>
       </c>
       <c r="D13" t="n">
-        <v>1.8331092766864</v>
+        <v>1.64168200065199</v>
       </c>
       <c r="E13" t="n">
-        <v>0.162607540368835</v>
+        <v>0.475940433890958</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1.29415049413901</v>
+        <v>1.10497798674246</v>
       </c>
       <c r="C14" t="n">
-        <v>1.07400024112196</v>
+        <v>0.934810938913767</v>
       </c>
       <c r="D14" t="n">
-        <v>1.55942749112481</v>
+        <v>1.30612116349877</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00672099808336388</v>
+        <v>0.242030709925674</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -694,16 +694,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.29415049413901</v>
+        <v>1.10497798674246</v>
       </c>
       <c r="C15" t="n">
-        <v>1.07400024112196</v>
+        <v>0.934810938913767</v>
       </c>
       <c r="D15" t="n">
-        <v>1.55942749112481</v>
+        <v>1.30612116349877</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00672099808336388</v>
+        <v>0.242030709925674</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -714,16 +714,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.52488175043817</v>
+        <v>1.47071665998919</v>
       </c>
       <c r="C16" t="n">
-        <v>1.20744372154632</v>
+        <v>1.19167924741428</v>
       </c>
       <c r="D16" t="n">
-        <v>1.92577451961198</v>
+        <v>1.81509202133299</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000395825230579335</v>
+        <v>0.000326073145720207</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -734,16 +734,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.52489080675633</v>
+        <v>1.47071859947791</v>
       </c>
       <c r="C17" t="n">
-        <v>1.20742818374302</v>
+        <v>1.19167709074363</v>
       </c>
       <c r="D17" t="n">
-        <v>1.92582217629008</v>
+        <v>1.81510009351653</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00039617896172655</v>
+        <v>0.000326124675305397</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -754,16 +754,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.18737479866414</v>
+        <v>1.25553196604231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.825213539144917</v>
+        <v>0.885617486324406</v>
       </c>
       <c r="D18" t="n">
-        <v>1.70847767956351</v>
+        <v>1.77995640566726</v>
       </c>
       <c r="E18" t="n">
-        <v>0.354901446837952</v>
+        <v>0.201301525166739</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -774,16 +774,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>1.10437185833078</v>
+        <v>1.25553196604231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.633541600293447</v>
+        <v>0.885617486324406</v>
       </c>
       <c r="D19" t="n">
-        <v>1.92510989161258</v>
+        <v>1.77995640566726</v>
       </c>
       <c r="E19" t="n">
-        <v>0.726228529838908</v>
+        <v>0.201301525166739</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -794,16 +794,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>1.24447630792817</v>
+        <v>1.26723683246392</v>
       </c>
       <c r="C20" t="n">
-        <v>1.00121034192344</v>
+        <v>1.03384001152649</v>
       </c>
       <c r="D20" t="n">
-        <v>1.54684906472225</v>
+        <v>1.55332466498568</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0487394432413473</v>
+        <v>0.0225839432747133</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -814,16 +814,16 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>1.24447630792817</v>
+        <v>1.26723683246392</v>
       </c>
       <c r="C21" t="n">
-        <v>1.00121034192344</v>
+        <v>1.03384001152649</v>
       </c>
       <c r="D21" t="n">
-        <v>1.54684906472225</v>
+        <v>1.55332466498568</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0487394432413473</v>
+        <v>0.0225839432747133</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -834,16 +834,16 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>0.929996420321174</v>
+        <v>1.00697951354145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.712642283727827</v>
+        <v>0.778641799451668</v>
       </c>
       <c r="D22" t="n">
-        <v>1.21364303179703</v>
+        <v>1.30227755741632</v>
       </c>
       <c r="E22" t="n">
-        <v>0.593102251032585</v>
+        <v>0.957723765530226</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -854,16 +854,16 @@
         <v>18</v>
       </c>
       <c r="B23" t="n">
-        <v>0.951637480651755</v>
+        <v>1.00697951354145</v>
       </c>
       <c r="C23" t="n">
-        <v>0.662494921364673</v>
+        <v>0.778641799451668</v>
       </c>
       <c r="D23" t="n">
-        <v>1.36697484822336</v>
+        <v>1.30227755741632</v>
       </c>
       <c r="E23" t="n">
-        <v>0.788495935155355</v>
+        <v>0.957723765530226</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -874,16 +874,16 @@
         <v>19</v>
       </c>
       <c r="B24" t="n">
-        <v>1.11854214564085</v>
+        <v>1.18298925140221</v>
       </c>
       <c r="C24" t="n">
-        <v>0.809326882050996</v>
+        <v>0.887725726471822</v>
       </c>
       <c r="D24" t="n">
-        <v>1.54589765806889</v>
+        <v>1.57645940317082</v>
       </c>
       <c r="E24" t="n">
-        <v>0.497417070416117</v>
+        <v>0.251359908695486</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -894,16 +894,16 @@
         <v>19</v>
       </c>
       <c r="B25" t="n">
-        <v>1.24001091763121</v>
+        <v>1.26913560932785</v>
       </c>
       <c r="C25" t="n">
-        <v>0.711175100860226</v>
+        <v>0.813239457782793</v>
       </c>
       <c r="D25" t="n">
-        <v>2.16209351815706</v>
+        <v>1.98060384238534</v>
       </c>
       <c r="E25" t="n">
-        <v>0.448222124570947</v>
+        <v>0.29391333858258</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -914,16 +914,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="n">
-        <v>1.18246412703435</v>
+        <v>1.16024518288088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.89067656986416</v>
+        <v>0.902369436751419</v>
       </c>
       <c r="D26" t="n">
-        <v>1.56984191459797</v>
+        <v>1.49181569052757</v>
       </c>
       <c r="E26" t="n">
-        <v>0.246369887862184</v>
+        <v>0.246484050524415</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -934,16 +934,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="n">
-        <v>1.18246412703435</v>
+        <v>1.16024518288088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.89067656986416</v>
+        <v>0.902369436751419</v>
       </c>
       <c r="D27" t="n">
-        <v>1.56984191459797</v>
+        <v>1.49181569052757</v>
       </c>
       <c r="E27" t="n">
-        <v>0.246369887862184</v>
+        <v>0.246484050524415</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -954,16 +954,16 @@
         <v>21</v>
       </c>
       <c r="B28" t="n">
-        <v>0.583910138531975</v>
+        <v>0.372907135769004</v>
       </c>
       <c r="C28" t="n">
-        <v>0.295380582332887</v>
+        <v>0.169289524793452</v>
       </c>
       <c r="D28" t="n">
-        <v>1.15427712677534</v>
+        <v>0.82143140325491</v>
       </c>
       <c r="E28" t="n">
-        <v>0.12178425859805</v>
+        <v>0.0143587542983091</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -974,16 +974,16 @@
         <v>21</v>
       </c>
       <c r="B29" t="n">
-        <v>0.583910138531975</v>
+        <v>0.372907135769004</v>
       </c>
       <c r="C29" t="n">
-        <v>0.295380582332887</v>
+        <v>0.169289524793452</v>
       </c>
       <c r="D29" t="n">
-        <v>1.15427712677534</v>
+        <v>0.82143140325491</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12178425859805</v>
+        <v>0.0143587542983091</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
